--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2569201.773641563</v>
+        <v>2567314.192125162</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>279.9354214952938</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,16 +713,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.31590541686235</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>56.49576810820431</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>6.283679164003906</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>378.8250228382216</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>68.2276977578159</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>127.004412707233</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>101.6123617732505</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>30.85507107620364</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>54.47555601903417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>51.44029960352449</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>127.5668126389826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.432921367082</v>
+        <v>118.2422920270587</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2059,16 +2059,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>24.32276211751099</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>152.6276470398216</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>73.50096938092101</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>258.4299051129668</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>87.65220976161993</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>2.496989041814347</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2570,7 +2570,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274074</v>
@@ -2716,19 +2716,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,10 +2761,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>106.2835578420357</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>79.98934679131152</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>18.66111384519103</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571496</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523577</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>93.5971748958799</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.708406770827</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.745889830415</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.480191223665</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>747.6919386254203</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>336.7060338358128</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4389,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,16 +4416,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761945</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>377.5443364482876</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>227.4276970359519</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>79.51460345355875</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2690.801940347511</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2690.801940347511</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2690.801940347511</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2690.801940347511</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1369.628472238665</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>659.2121177843979</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="V7" t="n">
-        <v>404.5276295785111</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="W7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>402.0066065949742</v>
+        <v>932.2014054355425</v>
       </c>
       <c r="C8" t="n">
-        <v>402.0066065949742</v>
+        <v>563.2388884951308</v>
       </c>
       <c r="D8" t="n">
-        <v>402.0066065949742</v>
+        <v>563.2388884951308</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>177.4506358968866</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>170.5051351476831</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>156.581731086274</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224083</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2665.982352557411</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="S8" t="n">
-        <v>2489.804864871581</v>
+        <v>2520.971603332394</v>
       </c>
       <c r="T8" t="n">
-        <v>2489.804864871581</v>
+        <v>2302.336936304457</v>
       </c>
       <c r="U8" t="n">
-        <v>2236.043079509672</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="V8" t="n">
-        <v>1904.980192166102</v>
+        <v>2048.575150942548</v>
       </c>
       <c r="W8" t="n">
-        <v>1552.211536895988</v>
+        <v>1695.806495672434</v>
       </c>
       <c r="X8" t="n">
-        <v>1178.745778634908</v>
+        <v>1322.340737411354</v>
       </c>
       <c r="Y8" t="n">
-        <v>788.606446659096</v>
+        <v>932.2014054355425</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464703</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942406</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124033</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>108.9687959810051</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>108.9687959810051</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>143.7578250841098</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>292.8275092861696</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>539.5926371926337</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>846.9127704725952</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>149.1769900497045</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>149.1769900497045</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904385</v>
+        <v>330.8254548799442</v>
       </c>
       <c r="X13" t="n">
-        <v>554.6108700904385</v>
+        <v>330.8254548799442</v>
       </c>
       <c r="Y13" t="n">
-        <v>425.7555037884359</v>
+        <v>330.8254548799442</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,7 +5276,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>412.2823606383761</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C16" t="n">
-        <v>412.2823606383761</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383761</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383761</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5461,25 +5461,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247859</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>675.0071030383441</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768803</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="X16" t="n">
-        <v>615.749957978863</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="Y16" t="n">
-        <v>412.2823606383761</v>
+        <v>266.1532743881929</v>
       </c>
     </row>
     <row r="17">
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5601,19 +5601,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.1070389581962</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765185</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V19" t="n">
-        <v>761.5137598931742</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W19" t="n">
-        <v>472.0965898562135</v>
+        <v>420.322614832457</v>
       </c>
       <c r="X19" t="n">
-        <v>244.1070389581962</v>
+        <v>420.322614832457</v>
       </c>
       <c r="Y19" t="n">
-        <v>244.1070389581962</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.597763704656</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1089.812348494162</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.867621687013</v>
+        <v>800.6837097077203</v>
       </c>
       <c r="V22" t="n">
-        <v>755.183133481126</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="W22" t="n">
-        <v>494.14282528621</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028596</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.09316900344</v>
@@ -5975,16 +5975,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028593</v>
+        <v>185.7546770780838</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799363</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765184</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V25" t="n">
-        <v>783.5599953231708</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W25" t="n">
-        <v>494.1428252862102</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X25" t="n">
-        <v>266.1532743881928</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>354.6908600059907</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.4381409926457</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C28" t="n">
-        <v>542.4381409926457</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
-        <v>542.4381409926457</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>394.5250474102526</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123423</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333286</v>
+        <v>791.4353891154691</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401273995</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W28" t="n">
-        <v>844.0280401273995</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X28" t="n">
-        <v>763.2307201361758</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.4381409926457</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,7 +6476,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899127</v>
@@ -6485,28 +6485,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6546,19 +6546,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.420029503087</v>
+        <v>750.8748194215252</v>
       </c>
       <c r="C31" t="n">
-        <v>546.5704195584497</v>
+        <v>637.699501774989</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274846</v>
+        <v>543.3437276440241</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264623</v>
+        <v>451.1914993430017</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>247.6479607276535</v>
       </c>
       <c r="H31" t="n">
         <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.08763629335</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
         <v>997.6688721962053</v>
@@ -6637,7 +6637,7 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056074</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652463</v>
+        <v>1041.794132832553</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.420029503087</v>
+        <v>876.7624189703942</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6844,19 +6844,19 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6889,10 +6889,10 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,25 +6935,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7254,22 +7254,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108338</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222968</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506734</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083214</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504521</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7345,10 +7345,10 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384657</v>
@@ -7357,25 +7357,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010324</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7391,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514082</v>
@@ -7421,19 +7421,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231263</v>
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>559.3999450277967</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636248</v>
+        <v>806.1650729342607</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1113.485206214222</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878255</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
         <v>320.8847398504512</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525403</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860497</v>
@@ -7819,13 +7819,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050813</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>5.100663089359948</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>43.65987261462533</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>242.9997743936049</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>41.75994765618367</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119852</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10194,22 +10194,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10358,7 +10358,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>297.2466435761027</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>148.2747143566552</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>286.5092576192343</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>97.17517341468786</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.01784071311222</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,10 +23662,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>17.15173198501276</v>
+        <v>100.3423613250361</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>227.814881206317</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>65.95700631227321</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>124.4198406026822</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>28.09309322362424</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>60.96326325659242</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>249.6406542820137</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,19 +24604,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,10 +24649,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>115.2640032163535</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>145.7203085977256</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>93.38245062487977</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>76.90922386460019</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>808738.5104277352</v>
+        <v>808738.510427735</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>808738.5104277349</v>
+        <v>808738.5104277352</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>841114.3195232356</v>
+        <v>841114.3195232357</v>
       </c>
     </row>
     <row r="12">
@@ -26314,46 +26314,46 @@
         <v>595255.2831516046</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516047</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516049</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516048</v>
-      </c>
       <c r="E2" t="n">
+        <v>566992.1366196779</v>
+      </c>
+      <c r="F2" t="n">
         <v>566992.1366196775</v>
       </c>
-      <c r="F2" t="n">
-        <v>566992.1366196777</v>
-      </c>
       <c r="G2" t="n">
-        <v>566992.1366196777</v>
+        <v>566992.1366196778</v>
       </c>
       <c r="H2" t="n">
         <v>566992.1366196777</v>
       </c>
       <c r="I2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196779</v>
       </c>
       <c r="J2" t="n">
-        <v>566992.1366196778</v>
+        <v>566992.1366196773</v>
       </c>
       <c r="K2" t="n">
-        <v>589892.0991506412</v>
+        <v>589892.0991506414</v>
       </c>
       <c r="L2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516045</v>
       </c>
       <c r="M2" t="n">
         <v>595255.2831516048</v>
       </c>
       <c r="N2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516046</v>
       </c>
       <c r="O2" t="n">
         <v>595255.2831516047</v>
       </c>
       <c r="P2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516052</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768958</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284564</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086691</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284566</v>
       </c>
     </row>
     <row r="4">
@@ -26418,46 +26418,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007496</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007498</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007496</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>7916.731656007455</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007497</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007487</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007496</v>
+        <v>7916.731656007458</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.354170204</v>
+        <v>26081.35417020402</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.518897328</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732802</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,10 +26482,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,7 +26494,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26506,10 +26506,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-225488.7228422701</v>
       </c>
       <c r="C6" t="n">
-        <v>364479.1563722746</v>
+        <v>364479.1563722744</v>
       </c>
       <c r="D6" t="n">
-        <v>364479.1563722745</v>
+        <v>364479.1563722747</v>
       </c>
       <c r="E6" t="n">
-        <v>-58071.95746194271</v>
+        <v>-58169.41658791419</v>
       </c>
       <c r="F6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889813</v>
       </c>
       <c r="G6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889815</v>
       </c>
       <c r="H6" t="n">
-        <v>467088.0790149536</v>
+        <v>466990.6198889814</v>
       </c>
       <c r="I6" t="n">
-        <v>467088.0790149537</v>
+        <v>466990.6198889816</v>
       </c>
       <c r="J6" t="n">
-        <v>290664.8598223608</v>
+        <v>290567.400696388</v>
       </c>
       <c r="K6" t="n">
-        <v>423019.9311473689</v>
+        <v>423001.4374094346</v>
       </c>
       <c r="L6" t="n">
-        <v>456861.7516333846</v>
+        <v>456861.7516333843</v>
       </c>
       <c r="M6" t="n">
-        <v>332403.6432004143</v>
+        <v>332403.6432004144</v>
       </c>
       <c r="N6" t="n">
+        <v>467204.6584342513</v>
+      </c>
+      <c r="O6" t="n">
         <v>467204.6584342514</v>
       </c>
-      <c r="O6" t="n">
-        <v>467204.6584342513</v>
-      </c>
       <c r="P6" t="n">
-        <v>423042.0531314057</v>
+        <v>423042.0531314061</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,13 +26750,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108363</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855707</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370133</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>133.8487485255012</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,16 +27433,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.415845301584341e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1051426060689</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>230.0272302283867</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>48.19472341080782</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>7.412915817831959</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>218.0541764841618</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>159.518585629358</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>222.3104109911067</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>23.62333149860807</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>123.9289676594881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>80.49006577330405</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28336,10 +28336,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855702</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31516,46 +31516,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>47.0108420442666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,13 +35738,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557334</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>621.6037559756885</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>450.0931893251296</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>374.9545210541966</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>481.9867828282169</v>
       </c>
       <c r="P30" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412255</v>
+        <v>67.71102679412259</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043177</v>
+        <v>94.42895660043182</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>546.504348532127</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>298.8501529445944</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38023,7 +38023,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>568.8729598603425</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
